--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -107,12 +107,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认初始1级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认等同于id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认与male相同</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>id</t>
   </si>
@@ -156,7 +222,7 @@
     <t>空置单位</t>
   </si>
   <si>
-    <t>nilo</t>
+    <t>Nilo</t>
   </si>
   <si>
     <t>尼洛</t>
@@ -166,6 +232,357 @@
   </si>
   <si>
     <t>eulderna</t>
+  </si>
+  <si>
+    <t>Kavina</t>
+  </si>
+  <si>
+    <t>卡薇娜</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>elea</t>
+  </si>
+  <si>
+    <t>Heston</t>
+  </si>
+  <si>
+    <t>海斯顿</t>
+  </si>
+  <si>
+    <t>yerles</t>
+  </si>
+  <si>
+    <t>Lexi</t>
+  </si>
+  <si>
+    <t>莱克茜</t>
+  </si>
+  <si>
+    <t>juere</t>
+  </si>
+  <si>
+    <t>teenage_girl</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>roran</t>
+  </si>
+  <si>
+    <t>warrior</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>martial_artist</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>灰熊</t>
+  </si>
+  <si>
+    <t>shoopkeeper</t>
+  </si>
+  <si>
+    <t>店主</t>
+  </si>
+  <si>
+    <t>norland</t>
+  </si>
+  <si>
+    <t>gunner</t>
+  </si>
+  <si>
+    <t>shoopkeeper_male</t>
+  </si>
+  <si>
+    <t>shoopkeeper_female</t>
+  </si>
+  <si>
+    <t>beggar</t>
+  </si>
+  <si>
+    <t>乞丐</t>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>begger_male</t>
+  </si>
+  <si>
+    <t>begger_female</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>townchild</t>
+  </si>
+  <si>
+    <t>城里小孩</t>
+  </si>
+  <si>
+    <t>townchild_male</t>
+  </si>
+  <si>
+    <t>townchild_female</t>
+  </si>
+  <si>
+    <t>oldperson</t>
+  </si>
+  <si>
+    <t>老人</t>
+  </si>
+  <si>
+    <t>oldperson_male</t>
+  </si>
+  <si>
+    <t>oldperson_female</t>
+  </si>
+  <si>
+    <t>citizen1</t>
+  </si>
+  <si>
+    <t>市民</t>
+  </si>
+  <si>
+    <t>citizen1_male</t>
+  </si>
+  <si>
+    <t>citizen1_female</t>
+  </si>
+  <si>
+    <t>citizen2</t>
+  </si>
+  <si>
+    <t>citizen2_male</t>
+  </si>
+  <si>
+    <t>citizen2_female</t>
+  </si>
+  <si>
+    <t>magicvendor</t>
+  </si>
+  <si>
+    <t>魔法店主</t>
+  </si>
+  <si>
+    <t>wizard</t>
+  </si>
+  <si>
+    <t>magicvendor_male</t>
+  </si>
+  <si>
+    <t>magicvendor_female</t>
+  </si>
+  <si>
+    <t>healer</t>
+  </si>
+  <si>
+    <t>治疗师</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>酒保</t>
+  </si>
+  <si>
+    <t>bartender_male</t>
+  </si>
+  <si>
+    <t>bartender_female</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>守卫</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>长老</t>
+  </si>
+  <si>
+    <t>elder_male</t>
+  </si>
+  <si>
+    <t>elder_female</t>
+  </si>
+  <si>
+    <t>mguild_receptionist</t>
+  </si>
+  <si>
+    <t>佣兵工会接待</t>
+  </si>
+  <si>
+    <t>warmage</t>
+  </si>
+  <si>
+    <t>putit</t>
+  </si>
+  <si>
+    <t>波球</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>believer</t>
+  </si>
+  <si>
+    <t>putit_red</t>
+  </si>
+  <si>
+    <t>红波球</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>straggler</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>flyingFrog</t>
+  </si>
+  <si>
+    <t>飞蛙</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>fighter</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>蜗牛</t>
+  </si>
+  <si>
+    <t>mandrake</t>
+  </si>
+  <si>
+    <t>曼德拉草</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>劣马</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>brid</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t>hermit_crab</t>
+  </si>
+  <si>
+    <t>寄居蟹</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>beetle</t>
+  </si>
+  <si>
+    <t>甲虫</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>黄峰</t>
+  </si>
+  <si>
+    <t>flyinsect</t>
   </si>
 </sst>
 </file>
@@ -173,10 +590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,16 +609,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +640,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,38 +669,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,25 +684,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,9 +707,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +745,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,6 +786,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,6 +840,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,127 +858,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,21 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +1028,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -644,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +1073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,20 +1525,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1162,7 +1582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1175,12 +1595,14 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1198,6 +1620,760 @@
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:12">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:12">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>35</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -173,12 +174,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用|隔开。
+NEUTRAL 中立而不是敌对的。
+NORANDOM 不参与怪物随机列表。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+随机中的稀有度。
+默认为1，平等随机。
+越小越稀有</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +265,12 @@
     <t>animFemale</t>
   </si>
   <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -225,6 +280,9 @@
     <t>Nilo</t>
   </si>
   <si>
+    <t>NORANDOM</t>
+  </si>
+  <si>
     <t>尼洛</t>
   </si>
   <si>
@@ -274,6 +332,9 @@
   </si>
   <si>
     <t>warrior</t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
   </si>
   <si>
     <t>cat</t>
@@ -590,12 +651,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,72 +668,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -691,8 +686,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -700,10 +745,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,15 +762,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +792,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -747,11 +808,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -762,6 +834,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -774,175 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,11 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,17 +1067,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,21 +1115,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1061,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,133 +1145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,6 +1335,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1518,17 +1595,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1537,14 +1613,15 @@
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1581,504 +1658,573 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:11">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:11">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:11">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:11">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:7">
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:12">
+    <row r="11" ht="14.25" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:13">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:12">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:12">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:12">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:13">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:11">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:12">
+        <v>77</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:11">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:12">
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:11">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2086,19 +2232,19 @@
     </row>
     <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -2106,16 +2252,16 @@
     </row>
     <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2123,16 +2269,16 @@
     </row>
     <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2140,16 +2286,16 @@
     </row>
     <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2157,16 +2303,16 @@
     </row>
     <row r="29" ht="14.25" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -2174,16 +2320,16 @@
     </row>
     <row r="30" ht="14.25" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2191,16 +2337,16 @@
     </row>
     <row r="31" ht="14.25" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2208,16 +2354,16 @@
     </row>
     <row r="32" ht="14.25" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -2225,16 +2371,16 @@
     </row>
     <row r="33" ht="14.25" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -2242,16 +2388,16 @@
     </row>
     <row r="34" ht="14.25" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2259,16 +2405,16 @@
     </row>
     <row r="35" ht="14.25" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2276,16 +2422,16 @@
     </row>
     <row r="36" ht="14.25" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2293,16 +2439,16 @@
     </row>
     <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -2310,16 +2456,16 @@
     </row>
     <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2327,16 +2473,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -2344,16 +2490,16 @@
     </row>
     <row r="40" ht="14.25" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -2361,16 +2507,16 @@
     </row>
     <row r="41" ht="14.25" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G41">
         <v>5</v>

--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,53 +670,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +685,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,8 +744,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -762,7 +778,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,39 +806,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,25 +834,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,157 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,17 +1028,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,26 +1085,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,15 +1117,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1133,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,31 +1145,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,100 +1178,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,11 +1614,11 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
     <col min="10" max="10" width="6.875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.125" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -651,10 +651,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -670,8 +670,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,8 +753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +763,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -707,46 +785,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,32 +800,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,22 +809,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,187 +834,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,6 +1025,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1052,39 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,21 +1106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1125,6 +1116,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,133 +1145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,8 +1613,8 @@
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="10" width="6.875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.125" customWidth="1"/>

--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,36 @@
   </si>
   <si>
     <t>rarity</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>flagstable</t>
+  </si>
+  <si>
+    <t>D=ND</t>
+  </si>
+  <si>
+    <t>UTF8</t>
+  </si>
+  <si>
+    <t>D=random</t>
+  </si>
+  <si>
+    <t>L=race</t>
+  </si>
+  <si>
+    <t>L=class</t>
+  </si>
+  <si>
+    <t>D=1</t>
   </si>
   <si>
     <t>null</t>
@@ -651,10 +681,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -670,9 +700,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,17 +736,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +753,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,7 +799,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -733,21 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,30 +815,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,37 +845,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -834,187 +864,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,6 +1055,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1039,6 +1084,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,54 +1147,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1116,15 +1155,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1163,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,16 +1175,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,120 +1193,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,10 +1634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,8 +1647,8 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.125" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
@@ -1665,860 +1698,930 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:13">
+    <row r="2" ht="14.25" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" t="s">
-        <v>16</v>
+    </row>
+    <row r="3" ht="14.25" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
+      <c r="A5" t="s">
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="A6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
+      <c r="A9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:13">
-      <c r="A11" s="1" t="s">
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:13">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:13">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25">
         <v>30</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:13">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18">
-        <v>35</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
+      <c r="K25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
+      <c r="A26" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>102</v>
+      <c r="A27" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28">
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="1" t="s">
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30">
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31">
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33">
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42">
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41">
+      <c r="G43">
         <v>5</v>
       </c>
     </row>

--- a/cvs/unit/unit.xlsx
+++ b/cvs/unit/unit.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>D=1</t>
+  </si>
+  <si>
+    <t>SKILL</t>
   </si>
   <si>
     <t>null</t>
@@ -681,9 +684,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -701,14 +704,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +719,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,13 +757,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,15 +771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,26 +785,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,7 +810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,16 +824,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,16 +840,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -864,187 +867,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,16 +1061,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1084,15 +1087,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,16 +1124,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1155,6 +1149,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1163,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,141 +1178,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1647,7 +1647,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.125" customWidth="1"/>
@@ -1764,862 +1764,868 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:13">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
+      <c r="A6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
+      <c r="A7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
+      <c r="A8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
+      <c r="A9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
+      <c r="A10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
+      <c r="A13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G13">
         <v>35</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:13">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
+      <c r="A15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>64</v>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>67</v>
+      <c r="A16" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="L16" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
+      <c r="A17" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
+      <c r="A18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="L18" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:13">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="L19" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
+      <c r="A20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G20">
         <v>35</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="L20" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
+      <c r="A21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>87</v>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>90</v>
+      <c r="A22" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>94</v>
+      <c r="A23" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G23">
         <v>40</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>94</v>
+      <c r="K23" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:13">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
+      <c r="A24" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G24">
         <v>25</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:13">
-      <c r="A25" s="2" t="s">
-        <v>100</v>
+      <c r="A25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G25">
         <v>30</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>100</v>
+      <c r="K25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>103</v>
+      <c r="A26" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>109</v>
+      <c r="A28" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>111</v>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>112</v>
+      <c r="A29" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>48</v>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>114</v>
+      <c r="A30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>111</v>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>117</v>
+      <c r="A31" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>121</v>
+      <c r="A32" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>61</v>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>123</v>
+      <c r="A33" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>106</v>
+      <c r="E33" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>125</v>
+      <c r="A34" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>106</v>
+      <c r="E34" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>127</v>
+      <c r="A35" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>48</v>
+      <c r="E35" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>129</v>
+      <c r="A36" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>111</v>
+      <c r="D36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>132</v>
+      <c r="A37" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>111</v>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>134</v>
+      <c r="A38" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>44</v>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>137</v>
+      <c r="A39" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>120</v>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G39">
         <v>10</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>139</v>
+      <c r="A40" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>111</v>
+      <c r="E40" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>141</v>
+      <c r="A41" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G41">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>144</v>
+      <c r="A42" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>120</v>
+      <c r="E42" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>146</v>
+      <c r="A43" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>120</v>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G43">
         <v>5</v>
